--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/23.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/23.xlsx
@@ -479,13 +479,13 @@
         <v>0.06455667552777475</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.616151074431486</v>
+        <v>-2.021112787123773</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1482159467786227</v>
+        <v>0.3047703100801297</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0742282232381615</v>
+        <v>0.04318875007777608</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.07726008890501317</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.859593593507352</v>
+        <v>-2.089662381904164</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2442314894743322</v>
+        <v>0.1384339629587528</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04217506191302081</v>
+        <v>-0.001399500995890695</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.09219373826467527</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.945940673635251</v>
+        <v>-2.294787854304687</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3368808799550692</v>
+        <v>0.09159205498450196</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02789079566976584</v>
+        <v>-0.01907317244601917</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1069388435788847</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.043644476764199</v>
+        <v>-2.339417579984373</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2433050199663519</v>
+        <v>0.1280030995450075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01801488406567674</v>
+        <v>-0.02811219687542539</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1207687646577058</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.915839258475704</v>
+        <v>-2.34526793911574</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3006509818355578</v>
+        <v>0.09868116301034463</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02906855249656634</v>
+        <v>-0.0245118351205816</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1334215624432864</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.590356309170457</v>
+        <v>-2.066334745780581</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0766149188524612</v>
+        <v>0.1689659821160839</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006178763412703925</v>
+        <v>-0.06748196663883578</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1455718191756704</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.364961952840242</v>
+        <v>-1.841483218852672</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06794184682910381</v>
+        <v>0.1861419582939859</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02079436859580219</v>
+        <v>-0.01309290021050446</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1580997115862028</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.013792804154427</v>
+        <v>-1.367613278022066</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04399384537108351</v>
+        <v>0.2516437794526669</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1774903095004992</v>
+        <v>-0.04723077040877002</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1744394125230914</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6201737862876234</v>
+        <v>-0.758426335848136</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1007811199003882</v>
+        <v>0.275459962038325</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1316334234191965</v>
+        <v>0.004793633555809086</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.200425654263338</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2758863725975564</v>
+        <v>-0.3101187805007179</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08498112476922975</v>
+        <v>0.1405985714405317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04089422849184988</v>
+        <v>0.02260026771346864</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2419099277580312</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4707962075770418</v>
+        <v>0.3830566785441267</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01765381102504189</v>
+        <v>0.009126510043427289</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1714020052990156</v>
+        <v>0.1434316529840264</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3038941331282066</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8677673494832525</v>
+        <v>0.9539326732494809</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1088887954564001</v>
+        <v>-0.086962223133492</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2374198193502254</v>
+        <v>0.2125734807415397</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3908915459337018</v>
       </c>
       <c r="E14" t="n">
-        <v>1.334603075148923</v>
+        <v>1.486331822062184</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2609207489521894</v>
+        <v>-0.402526032472786</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4907833081540756</v>
+        <v>0.3783432115542177</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5033029727955012</v>
       </c>
       <c r="E15" t="n">
-        <v>2.009078976165349</v>
+        <v>2.054779112632728</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6344666674265375</v>
+        <v>-0.771675642709134</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5166323563553351</v>
+        <v>0.4269240033778772</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6354467869335785</v>
       </c>
       <c r="E16" t="n">
-        <v>2.844046354457875</v>
+        <v>2.741424760912307</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9718424600076955</v>
+        <v>-1.027194591184612</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6157316579926828</v>
+        <v>0.5380100760753546</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7819221640060648</v>
       </c>
       <c r="E17" t="n">
-        <v>3.198738404972587</v>
+        <v>3.21130033123089</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.137618290027141</v>
+        <v>-1.369265553135377</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6165959155916347</v>
+        <v>0.6151296662847324</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9377695983468665</v>
       </c>
       <c r="E18" t="n">
-        <v>3.845392164398474</v>
+        <v>3.751992571485336</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.358405915485877</v>
+        <v>-1.617562430877481</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6787279250112827</v>
+        <v>0.7402786800259897</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.097192239880848</v>
       </c>
       <c r="E19" t="n">
-        <v>4.08234146794968</v>
+        <v>4.056218565364561</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.71013253167024</v>
+        <v>-1.9020208956233</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9560381194256152</v>
+        <v>0.9072145791726099</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.256758086848391</v>
       </c>
       <c r="E20" t="n">
-        <v>4.513695668166209</v>
+        <v>4.351628765782069</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.899980101038901</v>
+        <v>-2.129984847764654</v>
       </c>
       <c r="G20" t="n">
-        <v>1.131614154879048</v>
+        <v>1.180637749114027</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.410505351358216</v>
       </c>
       <c r="E21" t="n">
-        <v>4.930575230882154</v>
+        <v>4.679614829544691</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.16802011108734</v>
+        <v>-2.459742121172553</v>
       </c>
       <c r="G21" t="n">
-        <v>1.305884960084241</v>
+        <v>1.311942082325026</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.549949105440716</v>
       </c>
       <c r="E22" t="n">
-        <v>5.189435324824857</v>
+        <v>4.986468361699345</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.585806625849609</v>
+        <v>-2.680693815293334</v>
       </c>
       <c r="G22" t="n">
-        <v>1.226994160229586</v>
+        <v>1.359504306618516</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.670263640049269</v>
       </c>
       <c r="E23" t="n">
-        <v>5.369662005438494</v>
+        <v>5.265916938006357</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.75549936645513</v>
+        <v>-2.85931335492374</v>
       </c>
       <c r="G23" t="n">
-        <v>1.49022067629713</v>
+        <v>1.585354883614938</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.771449756670401</v>
       </c>
       <c r="E24" t="n">
-        <v>5.509248451519055</v>
+        <v>5.396869346986872</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.903030639271011</v>
+        <v>-3.014176179234471</v>
       </c>
       <c r="G24" t="n">
-        <v>1.632714614243748</v>
+        <v>1.669252522305017</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.853751666842863</v>
       </c>
       <c r="E25" t="n">
-        <v>5.746745463837981</v>
+        <v>5.601557506262166</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.094168190870994</v>
+        <v>-3.179536348312713</v>
       </c>
       <c r="G25" t="n">
-        <v>1.656978478606139</v>
+        <v>1.725945259129426</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.916432121288744</v>
       </c>
       <c r="E26" t="n">
-        <v>5.600829260974129</v>
+        <v>5.661388284968444</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.201643838122461</v>
+        <v>-3.320787267920119</v>
       </c>
       <c r="G26" t="n">
-        <v>1.748046344772069</v>
+        <v>1.729337637933499</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.959153643565353</v>
       </c>
       <c r="E27" t="n">
-        <v>5.647238125267889</v>
+        <v>5.794272922652897</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.180205126334767</v>
+        <v>-3.278063239394932</v>
       </c>
       <c r="G27" t="n">
-        <v>1.689440286784701</v>
+        <v>1.737509965081246</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.97967836038808</v>
       </c>
       <c r="E28" t="n">
-        <v>5.613660772171555</v>
+        <v>5.790937876392438</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.185459288004613</v>
+        <v>-3.26305919074693</v>
       </c>
       <c r="G28" t="n">
-        <v>1.706110638721579</v>
+        <v>1.736207174515712</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.97471462155492</v>
       </c>
       <c r="E29" t="n">
-        <v>5.487815838938128</v>
+        <v>5.793155547973094</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.251664042743246</v>
+        <v>-3.400240414638735</v>
       </c>
       <c r="G29" t="n">
-        <v>1.68805820653119</v>
+        <v>1.752539020476995</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.944296562909335</v>
       </c>
       <c r="E30" t="n">
-        <v>5.482574180642155</v>
+        <v>5.744507054954315</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.119129499527247</v>
+        <v>-3.330089473121542</v>
       </c>
       <c r="G30" t="n">
-        <v>1.616937186177629</v>
+        <v>1.719527673768683</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.888886483152689</v>
       </c>
       <c r="E31" t="n">
-        <v>5.324072874534284</v>
+        <v>5.669556342671454</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.128728736098246</v>
+        <v>-3.284443009673717</v>
       </c>
       <c r="G31" t="n">
-        <v>1.440767087985044</v>
+        <v>1.614138870112709</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.808754526729494</v>
       </c>
       <c r="E32" t="n">
-        <v>4.934661699416365</v>
+        <v>5.458571362329412</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.101919367791447</v>
+        <v>-3.262072034131613</v>
       </c>
       <c r="G32" t="n">
-        <v>1.410909031175519</v>
+        <v>1.521759064571095</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.707117661094683</v>
       </c>
       <c r="E33" t="n">
-        <v>4.600406870938127</v>
+        <v>5.265221628434864</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.159605970358617</v>
+        <v>-3.298592864413934</v>
       </c>
       <c r="G33" t="n">
-        <v>1.234232088900556</v>
+        <v>1.42482925078094</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.588395164489444</v>
       </c>
       <c r="E34" t="n">
-        <v>4.122446192128572</v>
+        <v>5.038811754177864</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.794090267514333</v>
+        <v>-3.134127144008143</v>
       </c>
       <c r="G34" t="n">
-        <v>1.061901441368099</v>
+        <v>1.322032610001146</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.456910512814416</v>
       </c>
       <c r="E35" t="n">
-        <v>3.890755624652287</v>
+        <v>4.795294824779434</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.758677053180988</v>
+        <v>-3.085674740486939</v>
       </c>
       <c r="G35" t="n">
-        <v>1.020952586972588</v>
+        <v>1.289894669701937</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.317510934169457</v>
       </c>
       <c r="E36" t="n">
-        <v>3.593209482024807</v>
+        <v>4.577838586057095</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.528994954493234</v>
+        <v>-3.038528787055329</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9754647029007176</v>
+        <v>1.252142409573262</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.176555444807801</v>
       </c>
       <c r="E37" t="n">
-        <v>3.185387241358572</v>
+        <v>4.227364746942773</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.551678514382171</v>
+        <v>-3.061985421402044</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9537210307746493</v>
+        <v>1.193715668264859</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.037941775044966</v>
       </c>
       <c r="E38" t="n">
-        <v>3.002073142279237</v>
+        <v>3.954583823473972</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.407332247340269</v>
+        <v>-3.016178853776573</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9580722048825699</v>
+        <v>1.149220735054735</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9036500060545969</v>
       </c>
       <c r="E39" t="n">
-        <v>2.880692828399605</v>
+        <v>3.665400913166061</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.327291137089268</v>
+        <v>-3.042117255356976</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7761218884364428</v>
+        <v>1.043107345634784</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7773902033622333</v>
       </c>
       <c r="E40" t="n">
-        <v>2.625676454561768</v>
+        <v>3.413678110982663</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.314267500878666</v>
+        <v>-3.070872880543279</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7210869160114354</v>
+        <v>0.9291070719438047</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6600051125491944</v>
       </c>
       <c r="E41" t="n">
-        <v>2.283258447745934</v>
+        <v>3.099285959263403</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.078458139072302</v>
+        <v>-2.954296911834392</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6906988381338168</v>
+        <v>0.9095353273476363</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5509817255220978</v>
       </c>
       <c r="E42" t="n">
-        <v>1.889981595378786</v>
+        <v>2.74951352892734</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.146499669928962</v>
+        <v>-2.999817731622807</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6239552184772769</v>
+        <v>0.8806891289408368</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4515958634912642</v>
       </c>
       <c r="E43" t="n">
-        <v>1.838046239833012</v>
+        <v>2.531448589369607</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.819933501501809</v>
+        <v>-2.859975728778688</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5556880169702202</v>
+        <v>0.8026137930309948</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3625591314520209</v>
       </c>
       <c r="E44" t="n">
-        <v>1.402787327443942</v>
+        <v>2.17594534435482</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.804686094503785</v>
+        <v>-2.77995291614799</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6913630417507954</v>
+        <v>0.8148597803787423</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2834332617806258</v>
       </c>
       <c r="E45" t="n">
-        <v>1.253458618393685</v>
+        <v>1.992466566692762</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.804297575032696</v>
+        <v>-2.79137124113739</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5559667507194941</v>
+        <v>0.7325015814767752</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2139782869067247</v>
       </c>
       <c r="E46" t="n">
-        <v>1.136472173069347</v>
+        <v>1.721031128236867</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.756058948708692</v>
+        <v>-2.755341396999852</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4416578571660801</v>
+        <v>0.6571501513092899</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1535815544720031</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8934157337818619</v>
+        <v>1.519765233878805</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.659064483326802</v>
+        <v>-2.681209198265186</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4227088415808714</v>
+        <v>0.5481585462157654</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1007016339858052</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8957187942572625</v>
+        <v>1.350105428989828</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.595728490491254</v>
+        <v>-2.674163394607393</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4372194644013844</v>
+        <v>0.4959554354928992</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.05349592990626689</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8248496711431986</v>
+        <v>1.17651285557718</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.595038670205852</v>
+        <v>-2.637466907170169</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3814995510563889</v>
+        <v>0.4180033035597601</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.01090330747592113</v>
       </c>
       <c r="E50" t="n">
-        <v>0.760124279006018</v>
+        <v>1.039116634646822</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.551121331876608</v>
+        <v>-2.616100166022331</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3090001099733775</v>
+        <v>0.3498538167433159</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.02863154933614614</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5532123489432998</v>
+        <v>0.7836806353833815</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.454783141142898</v>
+        <v>-2.523411740618282</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2461563231239646</v>
+        <v>0.2624698714649449</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0662617614234778</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5415890906065122</v>
+        <v>0.6327228282055302</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.450567979345893</v>
+        <v>-2.492389955157523</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1850575193307279</v>
+        <v>0.2100636571567215</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1020170636019314</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3252008229891594</v>
+        <v>0.4368486326299216</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.441988225186078</v>
+        <v>-2.477300517614776</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1683158066746704</v>
+        <v>0.1972687411999007</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.135910516691261</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1235531182874537</v>
+        <v>0.2718998550481466</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.454143944273667</v>
+        <v>-2.426212341889005</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1405949119164712</v>
+        <v>0.1169970809330888</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1678055641222249</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2004555767359093</v>
+        <v>0.2158438754102628</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.46526157836943</v>
+        <v>-2.381364264607043</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1594591485276119</v>
+        <v>0.07496378757431965</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1979324589067142</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1748736737910655</v>
+        <v>0.1208999633435996</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.418929564080941</v>
+        <v>-2.405315849582939</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06820647639662793</v>
+        <v>0.01418458221569893</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2268269669588239</v>
       </c>
       <c r="E57" t="n">
-        <v>0.05393494248140011</v>
+        <v>-0.05805198305563405</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.40363458327013</v>
+        <v>-2.39477885997144</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1234622401066182</v>
+        <v>0.02864458162004189</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2551519595129015</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.02729856269264348</v>
+        <v>-0.2099344299794355</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.335492415501806</v>
+        <v>-2.328201748659652</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04521307680390289</v>
+        <v>-0.03640711807919898</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2841039466513139</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.003278056680274713</v>
+        <v>-0.3014066735540487</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.45596638725579</v>
+        <v>-2.390311800934938</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08211815711257438</v>
+        <v>-0.07115795855759632</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3146991494301114</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2009033345188269</v>
+        <v>-0.4826610705080063</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.450990044454202</v>
+        <v>-2.449725393898319</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03979637127370338</v>
+        <v>-0.08249028473157524</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3474736164129813</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2141282445527551</v>
+        <v>-0.5912989216090169</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.402963670525707</v>
+        <v>-2.42540663667502</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07211423817255273</v>
+        <v>-0.1189049888161413</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3826999157249089</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1958659996495647</v>
+        <v>-0.6116952789601487</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.262994194260148</v>
+        <v>-2.403321408969973</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.007297433940044415</v>
+        <v>-0.1637213502229118</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4204426776581023</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.2173461860432779</v>
+        <v>-0.8070955661699241</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.337415495395593</v>
+        <v>-2.490772445522787</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04089971777794062</v>
+        <v>-0.1866110633005897</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4598133028012172</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.3524405663395889</v>
+        <v>-0.9177241983598403</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.433629872231922</v>
+        <v>-2.462644733673196</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01230602653131492</v>
+        <v>-0.2012766059729968</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4992839268921018</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2535699849560217</v>
+        <v>-1.075791240945867</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.545774767224234</v>
+        <v>-2.457088356308022</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04278010322435488</v>
+        <v>-0.2108920054419299</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.538062477252078</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3201092811858511</v>
+        <v>-1.232497550502069</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.650010820801154</v>
+        <v>-2.482786144181448</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1169703204294965</v>
+        <v>-0.2774947334221411</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5750810697495615</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3201977196839796</v>
+        <v>-1.377509241002303</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.612855673015016</v>
+        <v>-2.384954867631059</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.12801293428202</v>
+        <v>-0.2765926607412307</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6087301900960582</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3975643277674405</v>
+        <v>-1.497432454385183</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.665682122669519</v>
+        <v>-2.43339293801636</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.145542664452436</v>
+        <v>-0.3225514035755503</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6389510732115667</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.2375949425906366</v>
+        <v>-1.629812077749289</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.828096679839406</v>
+        <v>-2.460655172425644</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1199302654737548</v>
+        <v>-0.3099290951702493</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6656305047298702</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2213070109180797</v>
+        <v>-1.774848165076593</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.678693560466585</v>
+        <v>-2.40481693446936</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.09521140028650948</v>
+        <v>-0.3236486508730201</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6881372774014217</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3552016772432274</v>
+        <v>-1.850913202435874</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.883712296748677</v>
+        <v>-2.406923600486847</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1784905794103661</v>
+        <v>-0.3742196138649086</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7062350036055081</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2191777778355523</v>
+        <v>-1.906920998340294</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.965126338443038</v>
+        <v>-2.432553077244477</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2765371579596466</v>
+        <v>-0.436122903030776</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7194463876417132</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.04611156596693733</v>
+        <v>-1.935535426889929</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.936543625768594</v>
+        <v>-2.370735786894032</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3326968241125776</v>
+        <v>-0.4724790547303742</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7266148489524279</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.05680408535100753</v>
+        <v>-1.953207268578028</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.103668600325006</v>
+        <v>-2.434396867450287</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3148859205101808</v>
+        <v>-0.4511940429532205</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7263711972421621</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.102339543235664</v>
+        <v>-1.921895770795813</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.084857426812742</v>
+        <v>-2.342766044499719</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2855633740548411</v>
+        <v>-0.4901143011778676</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7178344579048359</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1002944032003432</v>
+        <v>-1.816833274701899</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.0912798915389</v>
+        <v>-2.284111192858212</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.268259314534822</v>
+        <v>-0.4486647019067463</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7000590198157309</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1104855677881265</v>
+        <v>-1.668394439919017</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.955390174680109</v>
+        <v>-2.173206876522406</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2630938963234427</v>
+        <v>-0.4714318209283978</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6723154995419287</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2859896326017035</v>
+        <v>-1.563763767664242</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.993602924919728</v>
+        <v>-2.135114280656106</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2400547526799615</v>
+        <v>-0.4391072449021042</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6350203015895809</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4999327282259732</v>
+        <v>-1.390119350994069</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.954642411930416</v>
+        <v>-2.071908200924705</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2667479310978403</v>
+        <v>-0.4199722035104874</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5884870197643255</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5111540488367841</v>
+        <v>-1.23670783293366</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.02651119503367</v>
+        <v>-2.022137453860709</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2428744159685678</v>
+        <v>-0.3883441568970401</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5330854159167451</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6837536713876867</v>
+        <v>-0.9255464310391341</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.807960758617245</v>
+        <v>-1.921824410076633</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2053630745072088</v>
+        <v>-0.3476032854523001</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4700309040486337</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8718916330994229</v>
+        <v>-0.6968164185277844</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.949862463586741</v>
+        <v>-1.960834326640762</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1188647340514759</v>
+        <v>-0.3027509387256014</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.400751970111464</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9823427783724055</v>
+        <v>-0.4187596812051123</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.97053328524241</v>
+        <v>-1.901646404327777</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1306435221608344</v>
+        <v>-0.2882988682900562</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3263440611397984</v>
       </c>
       <c r="E84" t="n">
-        <v>1.122741638794394</v>
+        <v>-0.1686049850816335</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.712959514006968</v>
+        <v>-1.750070137583703</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1754470752333933</v>
+        <v>-0.2835170901843514</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2487413622493267</v>
       </c>
       <c r="E85" t="n">
-        <v>1.285946653161347</v>
+        <v>0.1286782817341676</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.564634734390638</v>
+        <v>-1.631599755252837</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2357816484186646</v>
+        <v>-0.2321514005506602</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.170733786170791</v>
       </c>
       <c r="E86" t="n">
-        <v>1.388781109023099</v>
+        <v>0.3417912753173833</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.265116108294555</v>
+        <v>-1.484713778512956</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2019694758617825</v>
+        <v>-0.2390282561809945</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09533387873998242</v>
       </c>
       <c r="E87" t="n">
-        <v>1.563876526983255</v>
+        <v>0.5859022674549655</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.20388007234905</v>
+        <v>-1.405195980202605</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1500078937269085</v>
+        <v>-0.1565273358406685</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.02640795361402636</v>
       </c>
       <c r="E88" t="n">
-        <v>1.674622263943107</v>
+        <v>0.7844107104334489</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.129567947014743</v>
+        <v>-1.283630250437242</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0006322207845416382</v>
+        <v>-0.08438408843287797</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03054058871388132</v>
       </c>
       <c r="E89" t="n">
-        <v>1.585212772097256</v>
+        <v>0.8872579746294135</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8867780430629973</v>
+        <v>-1.060787192297865</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09320415133933163</v>
+        <v>-0.07577322831854888</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.07121011956640598</v>
       </c>
       <c r="E90" t="n">
-        <v>1.631397185581972</v>
+        <v>1.016330608084191</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.968432393503997</v>
+        <v>-0.9972163800017682</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04065704535477944</v>
+        <v>-0.04452455236603888</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09223221673277271</v>
       </c>
       <c r="E91" t="n">
-        <v>1.585506143942772</v>
+        <v>1.053372920545131</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5490271492656392</v>
+        <v>-0.7114136500843957</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08262385735978307</v>
+        <v>-0.05351417322062851</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09149371429737578</v>
       </c>
       <c r="E92" t="n">
-        <v>1.503500479191965</v>
+        <v>1.069500443079703</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5250121325393612</v>
+        <v>-0.4543997860302083</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1386060365957803</v>
+        <v>-0.08636023142554167</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07000569880769912</v>
       </c>
       <c r="E93" t="n">
-        <v>1.514643729956152</v>
+        <v>1.184336918018504</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2531241329413189</v>
+        <v>-0.260560895752908</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09419588235972397</v>
+        <v>-0.06882501196903501</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03243955410760548</v>
       </c>
       <c r="E94" t="n">
-        <v>1.53958521619041</v>
+        <v>1.232724364987634</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08887188477239018</v>
+        <v>-0.03529218308210353</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1737685735309826</v>
+        <v>-0.1079691110820486</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01433933592431154</v>
       </c>
       <c r="E95" t="n">
-        <v>1.499076724523511</v>
+        <v>1.233451390434318</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07261627889570094</v>
+        <v>0.1161065967450366</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06197438292780082</v>
+        <v>-0.0796937984286854</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06159171922451668</v>
       </c>
       <c r="E96" t="n">
-        <v>1.387167258912424</v>
+        <v>1.185534802227637</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1217093280816443</v>
+        <v>0.2021310288349362</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1594939900123711</v>
+        <v>-0.1493284420930112</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1002272051014246</v>
       </c>
       <c r="E97" t="n">
-        <v>1.276746609673279</v>
+        <v>1.137152234623921</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2291255080671285</v>
+        <v>0.2928573394218866</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05912666328806414</v>
+        <v>-0.1647551657699998</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1243765003284993</v>
       </c>
       <c r="E98" t="n">
-        <v>1.11714195706117</v>
+        <v>1.062013666772621</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3788683532568977</v>
+        <v>0.3054406129038758</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07635387280281303</v>
+        <v>-0.1925577898988833</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1320002351649242</v>
       </c>
       <c r="E99" t="n">
-        <v>1.042783477755431</v>
+        <v>0.9876429890533461</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4545503604311805</v>
+        <v>0.3400627601194793</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0996674807508308</v>
+        <v>-0.1995188145826089</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1260766357610772</v>
       </c>
       <c r="E100" t="n">
-        <v>1.01497841394384</v>
+        <v>0.8879447453114317</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3621424985384357</v>
+        <v>0.3654873035297221</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1371824817362503</v>
+        <v>-0.1708769396025201</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1139717593227064</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8820401032398338</v>
+        <v>0.9305702716473233</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3994214602219538</v>
+        <v>0.3683197751525401</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.296050960091524</v>
+        <v>-0.2360134182758289</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1065369132104174</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8883729096265089</v>
+        <v>0.9269930868781959</v>
       </c>
       <c r="F102" t="n">
-        <v>0.429740007142423</v>
+        <v>0.335364541146489</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1845025675210717</v>
+        <v>-0.2148705180163575</v>
       </c>
     </row>
   </sheetData>
